--- a/Input/TestData.xlsx
+++ b/Input/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Product Type</t>
   </si>
   <si>
@@ -117,7 +114,7 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +223,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,39 +551,39 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -592,42 +592,42 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -636,37 +636,37 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId22"/>
-    <hyperlink ref="M2" r:id="rId23"/>
-    <hyperlink ref="C3" r:id="rId24"/>
-    <hyperlink ref="M3" r:id="rId25"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
